--- a/testData/FindingHospital.xlsx
+++ b/testData/FindingHospital.xlsx
@@ -18,6 +18,49 @@
     <t>Top 5 doctors detail</t>
   </si>
   <si>
+    <t>Dr. T. Ramakrishna
+BDS, MDS - Oral &amp; Maxillofacial Surgery
+Oral And MaxilloFacial Surgeon, Dentist, Dental Surgeon, Implantologist
+26 Years Experience Overall
+Medical Registration Verified
+95% (768 patients)
+Dr. Ramakrishna T is an experienced dental surgeon and implantologist practicing for 19 years. He began his career from Manipal Institute of Dental Sciences, pu more..
+Share your story</t>
+  </si>
+  <si>
+    <t>Dr. Sunil Rao
+Profile is claimed
+BDS, MDS - Conservative Dentistry &amp; Endodontics
+Endodontist, Dental Surgeon, Dentist, Cosmetic/Aesthetic Dentist, Implantologist
+28 Years Experience Overall  (27 years as specialist)
+Medical Registration Verified
+97% (394 patients)
+Dr.Sunil Rao has completed his BDS from,KMC, Mahe Mangalore in 1996 and MDS from SDMCDS, Dharwad in the year 1999.He specializes in Re-treatment of failed RCT. more..
+Share your story</t>
+  </si>
+  <si>
+    <t>Dr. Shyam Padmanabhan
+Profile is claimed
+BDS, MDS - Periodontics
+Periodontist, Dentist, Implantologist, Dental Surgeon
+28 Years Experience Overall  (23 years as specialist)
+Medical Registration Verified
+99% (674 patients)
+Dr. Shyam established the medical and dental diagnostic center in the year 2001. He graduated from SDM College of Dental Science, Dharwad, Karnataka and followe more..
+Share your story</t>
+  </si>
+  <si>
+    <t>Dr. Vivekananda Reddy
+Profile is claimed
+MDS - Prosthodontist And Crown Bridge, BDS
+Dental Surgeon, Dentist, Prosthodontist
+23 Years Experience Overall  (22 years as specialist)
+Medical Registration Verified
+98% (384 patients)
+Dr. Vivekanand Reddy had done MDS, a prominent Prosthodontist and Implantologist, had been in practice for 22 years. By employing advanced methods and keenly st more..
+Share your story</t>
+  </si>
+  <si>
     <t>Dr. Priya Bansal
 Profile is claimed
 BDS
@@ -26,49 +69,6 @@
 Medical Registration Verified
 99% (458 patients)
 Dr.Priya Bansal has graduated from Tamil Nadu Government Dental College and Hospital, Chennai. She has done specialization in biofunctional prosthetic system ( more..
-Share your story</t>
-  </si>
-  <si>
-    <t>Dr. Sanjay Mohanchandra
-Profile is claimed
-BDS, MDS - Oral &amp; Maxillofacial Surgery
-Dentist, Oral And MaxilloFacial Surgeon, Implantologist, Cosmetic/Aesthetic Dentist
-36 Years Experience Overall  (35 years as specialist)
-Medical Registration Verified
-96% (216 patients)
-Dr. Sanjay Mohanchandra is a Oral &amp; Maxillo-facial Surgeon, Implantologist-very Well Trained In Replacing Lost Teeth Using Dental Implants
-Share your story</t>
-  </si>
-  <si>
-    <t>Dr. Hemalatha Sanjay
-Profile is claimed
-BDS, MDS - Orthodontics
-Orthodontist, Dentist, Cosmetic/Aesthetic Dentist, Dentofacial Orthopedist
-29 Years Experience Overall  (27 years as specialist)
-Medical Registration Verified
-93% (475 patients)
-Dr. Hemalatha Sanjay is dedicated to providing quality orthodontic care to children, teens and adults using modern braces and technology, such as the revolution more..
-Share your story</t>
-  </si>
-  <si>
-    <t>Dr. Shraddha Durgan
-BDS, MDS - Paedodontics And Preventive Dentistry
-Pediatric Dentist, Preventive Dentistry
-16 Years Experience Overall  (15 years as specialist)
-Medical Registration Verified
-100% (78 patients)
-.
-Share your story</t>
-  </si>
-  <si>
-    <t>Dr. Amith Kukke
-Profile is claimed
-BDS
-Dentist
-22 Years Experience Overall
-Medical Registration Verified
-95% (913 patients)
-Dr. Amith Kukke is a Dental Surgeon specialized in Aesthetic or cosmetic procedures, prosthetic and endodontic treatment. Having done his awareness program fo more..
 Share your story</t>
   </si>
   <si>

--- a/testData/FindingHospital.xlsx
+++ b/testData/FindingHospital.xlsx
@@ -18,24 +18,25 @@
     <t>Top 5 doctors detail</t>
   </si>
   <si>
-    <t>Dr. T. Ramakrishna
-BDS, MDS - Oral &amp; Maxillofacial Surgery
-Oral And MaxilloFacial Surgeon, Dentist, Dental Surgeon, Implantologist
-26 Years Experience Overall
-Medical Registration Verified
-95% (768 patients)
-Dr. Ramakrishna T is an experienced dental surgeon and implantologist practicing for 19 years. He began his career from Manipal Institute of Dental Sciences, pu more..
-Share your story</t>
-  </si>
-  <si>
-    <t>Dr. Sunil Rao
+    <t>Dr. K.A. Mohan
 Profile is claimed
-BDS, MDS - Conservative Dentistry &amp; Endodontics
-Endodontist, Dental Surgeon, Dentist, Cosmetic/Aesthetic Dentist, Implantologist
-28 Years Experience Overall  (27 years as specialist)
-Medical Registration Verified
-97% (394 patients)
-Dr.Sunil Rao has completed his BDS from,KMC, Mahe Mangalore in 1996 and MDS from SDMCDS, Dharwad in the year 1999.He specializes in Re-treatment of failed RCT. more..
+BDS, MDS - Orthodontics
+Orthodontist, Dentist, Dentofacial Orthopedist, Dental Surgeon
+55 Years Experience Overall  (47 years as specialist)
+Medical Registration Verified
+96% (54 patients)
+Dr. K A Mohan is a Dentist and Orthodontist in Domlur 2nd Stage, Indiranagar, Bangalore and has an experience of 47 years in these fields. Dr. K A Mohan practic more..
+Share your story</t>
+  </si>
+  <si>
+    <t>Dr. Vivekananda Reddy
+Profile is claimed
+MDS - Prosthodontist And Crown Bridge, BDS
+Dental Surgeon, Dentist, Prosthodontist
+23 Years Experience Overall  (22 years as specialist)
+Medical Registration Verified
+98% (384 patients)
+Dr. Vivekanand Reddy had done MDS, a prominent Prosthodontist and Implantologist, had been in practice for 22 years. By employing advanced methods and keenly st more..
 Share your story</t>
   </si>
   <si>
@@ -50,25 +51,24 @@
 Share your story</t>
   </si>
   <si>
-    <t>Dr. Vivekananda Reddy
+    <t>Dr. A. Praveen Kumar Reddy
+BDS, MDS - Conservative Dentistry &amp; Endodontics
+Dentist, Endodontist, Cosmetic/Aesthetic Dentist, Dental Surgeon
+17 Years Experience Overall
+Medical Registration Verified
+98% (51 patients)
+Dr. A. Praveen Kumar Reddy is a Dentist,Endodontist and Cosmetic/Aesthetic Dentist in Whitefield, Bangalore and has an experience of 17 years in these fields. more..
+Share your story</t>
+  </si>
+  <si>
+    <t>Dr. Pramod
 Profile is claimed
-MDS - Prosthodontist And Crown Bridge, BDS
-Dental Surgeon, Dentist, Prosthodontist
-23 Years Experience Overall  (22 years as specialist)
-Medical Registration Verified
-98% (384 patients)
-Dr. Vivekanand Reddy had done MDS, a prominent Prosthodontist and Implantologist, had been in practice for 22 years. By employing advanced methods and keenly st more..
-Share your story</t>
-  </si>
-  <si>
-    <t>Dr. Priya Bansal
-Profile is claimed
-BDS
-Dentist, Dental Surgeon
-18 Years Experience Overall
-Medical Registration Verified
-99% (458 patients)
-Dr.Priya Bansal has graduated from Tamil Nadu Government Dental College and Hospital, Chennai. She has done specialization in biofunctional prosthetic system ( more..
+MDS - Orthodontics, BDS
+Orthodontist, Cosmetic/Aesthetic Dentist, Dentofacial Orthopedist, Dental Surgeon, Dentist
+20 Years Experience Overall  (15 years as specialist)
+Medical Registration Verified
+98% (729 patients)
+Dr. Pramod is an orthodontist at Koramangala, Domlur &amp; Indiranagar, Bangalore and has an experience of 15 years in this field. Dr. Pramod practices at Dental D more..
 Share your story</t>
   </si>
   <si>

--- a/testData/FindingHospital.xlsx
+++ b/testData/FindingHospital.xlsx
@@ -18,36 +18,13 @@
     <t>Top 5 doctors detail</t>
   </si>
   <si>
-    <t>Dr. K.A. Mohan
-Profile is claimed
-BDS, MDS - Orthodontics
-Orthodontist, Dentist, Dentofacial Orthopedist, Dental Surgeon
-55 Years Experience Overall  (47 years as specialist)
-Medical Registration Verified
-96% (54 patients)
-Dr. K A Mohan is a Dentist and Orthodontist in Domlur 2nd Stage, Indiranagar, Bangalore and has an experience of 47 years in these fields. Dr. K A Mohan practic more..
-Share your story</t>
-  </si>
-  <si>
-    <t>Dr. Vivekananda Reddy
-Profile is claimed
-MDS - Prosthodontist And Crown Bridge, BDS
-Dental Surgeon, Dentist, Prosthodontist
-23 Years Experience Overall  (22 years as specialist)
-Medical Registration Verified
-98% (384 patients)
-Dr. Vivekanand Reddy had done MDS, a prominent Prosthodontist and Implantologist, had been in practice for 22 years. By employing advanced methods and keenly st more..
-Share your story</t>
-  </si>
-  <si>
-    <t>Dr. Shyam Padmanabhan
-Profile is claimed
-BDS, MDS - Periodontics
-Periodontist, Dentist, Implantologist, Dental Surgeon
-28 Years Experience Overall  (23 years as specialist)
-Medical Registration Verified
-99% (674 patients)
-Dr. Shyam established the medical and dental diagnostic center in the year 2001. He graduated from SDM College of Dental Science, Dharwad, Karnataka and followe more..
+    <t>Dr. T. Ramakrishna
+BDS, MDS - Oral &amp; Maxillofacial Surgery
+Oral And MaxilloFacial Surgeon, Dentist, Dental Surgeon, Implantologist
+26 Years Experience Overall
+Medical Registration Verified
+95% (768 patients)
+Dr. Ramakrishna T is an experienced dental surgeon and implantologist practicing for 19 years. He began his career from Manipal Institute of Dental Sciences, pu more..
 Share your story</t>
   </si>
   <si>
@@ -61,14 +38,35 @@
 Share your story</t>
   </si>
   <si>
-    <t>Dr. Pramod
+    <t>Dr. Jonathan Eric Rao
 Profile is claimed
-MDS - Orthodontics, BDS
-Orthodontist, Cosmetic/Aesthetic Dentist, Dentofacial Orthopedist, Dental Surgeon, Dentist
-20 Years Experience Overall  (15 years as specialist)
-Medical Registration Verified
-98% (729 patients)
-Dr. Pramod is an orthodontist at Koramangala, Domlur &amp; Indiranagar, Bangalore and has an experience of 15 years in this field. Dr. Pramod practices at Dental D more..
+BDS
+Cosmetic/Aesthetic Dentist, Dentist, Implantologist, Dental Surgeon
+16 Years Experience Overall  (15 years as specialist)
+Medical Registration Verified
+98% (220 patients)
+Dr. Jonathan Eric Rao is passionate and committed about evidence-based Aesthetic Dentistry. He specializes in full mouth rehabilitations, Smile designing, Compl more..
+Share your story</t>
+  </si>
+  <si>
+    <t>Dr. Nirjhar
+Profile is claimed
+BDS, MDS - Periodontics
+Periodontist, Implantologist, Dental Surgeon
+17 Years Experience Overall  (11 years as specialist)
+Medical Registration Verified
+96% (91 patients)
+Well trained and experienced in all type of periodontal surgeries and implant procedures. Specialized in Flap surgeries, Bone grafting procedures, Mucogingival more..
+Share your story</t>
+  </si>
+  <si>
+    <t>Dr. Mahantesh
+BDS, MDS - Orthodontics and Dentofacial Orthopaedics
+Cosmetic/Aesthetic Dentist, Dental Surgeon, Orthodontist, Implantologist, Dentist
+16 Years Experience Overall  (12 years as specialist)
+Medical Registration Verified
+99% (1464 patients)
+Dr Mahantesh had done Under graduation from Rajiv Gandhi University of Applied science Bangalore and Completed Post graduation M D S (Orthodontics) from Prestig more..
 Share your story</t>
   </si>
   <si>
